--- a/cnpjs_bases_com_dv.xlsx
+++ b/cnpjs_bases_com_dv.xlsx
@@ -463,414 +463,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000000000001;"BANCO DO BRASIL SA";"2038";"10";"120000000000</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000000;"BANCO DO BRASIL SA";</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000000000001</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00000001;"ASSOCIACAO DE AMIGOS DE BAIRRO DO CONJ PAULISTANO";"3999";"16";"0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000001;"ASSOCIACAO DE AMIGOS DE BAIRRO DO CONJ PAULISTANO";</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000000013999</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00000002;"WM&amp;R EMPREITEIRA DE CONSTRUCAO CIVIL LIMITADA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000002;"WM&amp;R EMPREITEIRA DE CONSTRUCAO CIVIL LIMITADA";</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000000022240</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00000003;"CASA CARIDADE LUZETE ROBERTA DE MORAIS CONJ PAULISTANO";"3999";"16";"0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000003;"CASA CARIDADE LUZETE ROBERTA DE MORAIS CONJ PAULISTANO";</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000000033999</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00000004;"ASSOCIACAO DO PEQUENO ADOLECENTE DO CONJ PAULISTANO";"3999";"16";"0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000004;"ASSOCIACAO DO PEQUENO ADOLECENTE DO CONJ PAULISTANO";</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000000043999</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00000005;"SERRALHERIA PORTA DE ACO REAL S/C LTDA";"2240";"28";"0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000005;"SERRALHERIA PORTA DE ACO REAL S/C LTDA";</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000000052240</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00000006;"ACADEMIA DE BALLET PAULA FIRETTI LTDA";"2062";"49";"1000</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000006;"ACADEMIA DE BALLET PAULA FIRETTI LTDA";</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>000000062062</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00000007;"ADVOCACIA BERGANTIN E ASSOCIADOS";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000007;"ADVOCACIA BERGANTIN E ASSOCIADOS";</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>000000072240</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00000008;"A.R. ZANOTI E SILVA S/C LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000008;"A.R. ZANOTI E SILVA S/C LTDA";</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>000000082240</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00000009;"SUWAN REPRESENTACOES LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000009;"SUWAN REPRESENTACOES LTDA";</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>000000092240</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00000010;"ADUB SERVICOS GERAIS DE AUTOS LTDA";"2240";"28";"0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000010;"ADUB SERVICOS GERAIS DE AUTOS LTDA";</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>000000102240</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00000011;"KAWANISHI MANUTENCAO ELETRICA INDUSTRIAL S/C LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000011;"KAWANISHI MANUTENCAO ELETRICA INDUSTRIAL S/C LTDA";</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>000000112240</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00000012;"APARTH ADMINISTRACAO S/C LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000012;"APARTH ADMINISTRACAO S/C LTDA";</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>000000122240</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00000013;"SAMPAIO SERVICOS CONTABEIS LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000013;"SAMPAIO SERVICOS CONTABEIS LTDA";</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>000000132240</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00000014;"CLUBE DE MAES DA CASA VERDE ALTA E ADJACENCIAS";"3999";"16";"0</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000014;"CLUBE DE MAES DA CASA VERDE ALTA E ADJACENCIAS";</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>000000143999</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00000015;"DOS - INSTALACAO DE SISTEMAS DE AUDIO E VIDEO S/S LTDA";"2240";"49";"0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>00";"01";""</t>
-        </is>
-      </c>
+          <t>00000015;"DOS - INSTALACAO DE SISTEMAS DE AUDIO E VIDEO S/S LTDA";</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>000000152240</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00000016;"MICRO-ARTE COMUNICACOES VISUAIS LTDA";"2062";"49";"10000</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000016;"MICRO-ARTE COMUNICACOES VISUAIS LTDA";</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>000000162062</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00000017;"ASSOCIACAO VIVER EM CRISTO";"3999";"16";"0</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>00";"05";""</t>
-        </is>
-      </c>
+          <t>00000017;"ASSOCIACAO VIVER EM CRISTO";</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>000000173999</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>Base inválida</t>
         </is>
       </c>
     </row>
